--- a/Real_Estate_data.xlsx
+++ b/Real_Estate_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yousif Ennwa\Desktop\Data_Analysis\ML-Samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yousif Ennwa\Documents\GitHub\Machine_Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859CCB90-6C41-4234-B0B8-5474382F9904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC9024E-CA4D-45C7-AC3E-78A5E8B54EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Real_Estate_data!$A$1:$E$5892</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -521,8 +531,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -880,24 +893,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5892"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
